--- a/data/annotations/new_annotation_structure_out/iteration_13/iteration_13_mistral-large-2411-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_13/iteration_13_mistral-large-2411-3.xlsx
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" t="n">
         <v>0</v>
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
